--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2302c04623c2e868/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E15EFCE-E1F9-4299-BD7E-6468319F01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEF711-AFA9-4FF1-9EBE-7CEB9F7FDE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="4185" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
-  <si>
-    <t>Requirements Traceability Matrix</t>
-  </si>
-  <si>
-    <t>Employee Reimbursement System</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -82,18 +76,9 @@
     <t>(1.1)Scenario: Login With Correct Credentials</t>
   </si>
   <si>
-    <t>1.1 Pass, 1.2 Pass</t>
-  </si>
-  <si>
-    <t>1.1 PASS, 1.2 fale</t>
-  </si>
-  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Eric Suminski</t>
-  </si>
-  <si>
     <t>Manager login</t>
   </si>
   <si>
@@ -118,21 +103,12 @@
     <t>Manager should be able logout</t>
   </si>
   <si>
-    <t>View request</t>
-  </si>
-  <si>
     <t>Manager should view request</t>
   </si>
   <si>
-    <t>Approve request</t>
-  </si>
-  <si>
     <t>Manager should approve request</t>
   </si>
   <si>
-    <t>Deny request</t>
-  </si>
-  <si>
     <t>Manager should deny request</t>
   </si>
   <si>
@@ -148,41 +124,146 @@
     <t>Employee should view request</t>
   </si>
   <si>
-    <t>Scenario: Logout with button</t>
-  </si>
-  <si>
-    <t>Scenario: Logout button error</t>
-  </si>
-  <si>
-    <t>Scenario: Table load</t>
-  </si>
-  <si>
-    <t>Scenario: Submit Approve</t>
-  </si>
-  <si>
-    <t>Scenario: Submit Deny</t>
-  </si>
-  <si>
-    <t>Scenario: Table load failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Submit Approve failed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Submit Deny failed </t>
-  </si>
-  <si>
-    <t>Scenario: Create request</t>
-  </si>
-  <si>
-    <t>Scenario: request create failed</t>
+    <t>Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Manager view request</t>
+  </si>
+  <si>
+    <t>Manager deny request</t>
+  </si>
+  <si>
+    <t>()Scenario: Login With Correct Credentials</t>
+  </si>
+  <si>
+    <t>()Scenario: Login with incorrect credentials</t>
+  </si>
+  <si>
+    <t>()Scenario: Logout with button</t>
+  </si>
+  <si>
+    <t>()Scenario: Table load</t>
+  </si>
+  <si>
+    <t>()Scenario: Submit Approve</t>
+  </si>
+  <si>
+    <t>()Scenario: Submit Deny</t>
+  </si>
+  <si>
+    <t>()Scenario: Create request</t>
+  </si>
+  <si>
+    <t>()Scenario: Logout button error</t>
+  </si>
+  <si>
+    <t>()Scenario: Table load failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()Scenario: Submit Approve failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">()Scenario: Submit Deny failed </t>
+  </si>
+  <si>
+    <t>()Scenario: request create failed</t>
+  </si>
+  <si>
+    <t>Manager approve request</t>
+  </si>
+  <si>
+    <t>Employee sees their requests</t>
+  </si>
+  <si>
+    <t>Employees request no longer than 500 Char</t>
+  </si>
+  <si>
+    <t>Managers reason no longer than 500 Char</t>
+  </si>
+  <si>
+    <t>Employee must only see their requests</t>
+  </si>
+  <si>
+    <t>Employee request up to $1000</t>
+  </si>
+  <si>
+    <t>Employees may only request upto $1000</t>
+  </si>
+  <si>
+    <t>Employee request is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>Managers approve or denial reason is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>Managers usernames must be unique</t>
+  </si>
+  <si>
+    <t>Employees usernames must be unique</t>
+  </si>
+  <si>
+    <t>Employees must have unique usernames</t>
+  </si>
+  <si>
+    <t>Managers must have unique usernames</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>()Scenario: Sees others requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Makes over 1000$ requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Sees only their requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Makes up 1000$ requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Request is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenario: Manager approval or denial is no more than 500 character</t>
+  </si>
+  <si>
+    <t>()Scenraio: Managers have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenario: Employees have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenario: Request is more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenario: Manager approval or denial is more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenraio: Managers do not have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenraio: Employees do not have unique usernames</t>
+  </si>
+  <si>
+    <t>Seble</t>
+  </si>
+  <si>
+    <t>Sherrita</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,12 +284,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -244,13 +319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,31 +639,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" customWidth="1"/>
-    <col min="11" max="11" width="42.109375" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -599,58 +668,32 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="21.6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -660,210 +703,379 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="S6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
       </c>
       <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="K14" t="s">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2302c04623c2e868/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E15EFCE-E1F9-4299-BD7E-6468319F01F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA04D100-F6EB-4A2D-8320-7A92B11A9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
-  <si>
-    <t>Requirements Traceability Matrix</t>
-  </si>
-  <si>
-    <t>Employee Reimbursement System</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Feature/Requirment</t>
   </si>
   <si>
-    <t>Description(User Story)</t>
-  </si>
-  <si>
-    <t>Test steps(Acceptance Criteria)</t>
-  </si>
-  <si>
     <t>Positive tests</t>
   </si>
   <si>
@@ -76,24 +64,12 @@
     <t>Employees should be able login</t>
   </si>
   <si>
-    <t>link to feature file/Acceptance Criteria</t>
-  </si>
-  <si>
     <t>(1.1)Scenario: Login With Correct Credentials</t>
   </si>
   <si>
-    <t>1.1 Pass, 1.2 Pass</t>
-  </si>
-  <si>
-    <t>1.1 PASS, 1.2 fale</t>
-  </si>
-  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Eric Suminski</t>
-  </si>
-  <si>
     <t>Manager login</t>
   </si>
   <si>
@@ -118,21 +94,12 @@
     <t>Manager should be able logout</t>
   </si>
   <si>
-    <t>View request</t>
-  </si>
-  <si>
     <t>Manager should view request</t>
   </si>
   <si>
-    <t>Approve request</t>
-  </si>
-  <si>
     <t>Manager should approve request</t>
   </si>
   <si>
-    <t>Deny request</t>
-  </si>
-  <si>
     <t>Manager should deny request</t>
   </si>
   <si>
@@ -148,41 +115,156 @@
     <t>Employee should view request</t>
   </si>
   <si>
-    <t>Scenario: Logout with button</t>
-  </si>
-  <si>
-    <t>Scenario: Logout button error</t>
-  </si>
-  <si>
-    <t>Scenario: Table load</t>
-  </si>
-  <si>
-    <t>Scenario: Submit Approve</t>
-  </si>
-  <si>
-    <t>Scenario: Submit Deny</t>
-  </si>
-  <si>
-    <t>Scenario: Table load failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Submit Approve failed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Submit Deny failed </t>
-  </si>
-  <si>
-    <t>Scenario: Create request</t>
-  </si>
-  <si>
-    <t>Scenario: request create failed</t>
+    <t>Manager view request</t>
+  </si>
+  <si>
+    <t>Manager deny request</t>
+  </si>
+  <si>
+    <t>()Scenario: Login With Correct Credentials</t>
+  </si>
+  <si>
+    <t>()Scenario: Login with incorrect credentials</t>
+  </si>
+  <si>
+    <t>()Scenario: Logout with button</t>
+  </si>
+  <si>
+    <t>()Scenario: Table load</t>
+  </si>
+  <si>
+    <t>()Scenario: Submit Approve</t>
+  </si>
+  <si>
+    <t>()Scenario: Submit Deny</t>
+  </si>
+  <si>
+    <t>()Scenario: Create request</t>
+  </si>
+  <si>
+    <t>()Scenario: Logout button error</t>
+  </si>
+  <si>
+    <t>()Scenario: Table load failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()Scenario: Submit Approve failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">()Scenario: Submit Deny failed </t>
+  </si>
+  <si>
+    <t>()Scenario: request create failed</t>
+  </si>
+  <si>
+    <t>Manager approve request</t>
+  </si>
+  <si>
+    <t>Employee sees their requests</t>
+  </si>
+  <si>
+    <t>Employees request no longer than 500 Char</t>
+  </si>
+  <si>
+    <t>Managers reason no longer than 500 Char</t>
+  </si>
+  <si>
+    <t>Employee must only see their requests</t>
+  </si>
+  <si>
+    <t>Employee request up to $1000</t>
+  </si>
+  <si>
+    <t>Employees may only request upto $1000</t>
+  </si>
+  <si>
+    <t>Employee request is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>Managers approve or denial reason is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>Managers usernames must be unique</t>
+  </si>
+  <si>
+    <t>Employees usernames must be unique</t>
+  </si>
+  <si>
+    <t>Employees must have unique usernames</t>
+  </si>
+  <si>
+    <t>Managers must have unique usernames</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>()Scenario: Sees others requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Makes over 1000$ requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Sees only their requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Makes up 1000$ requests</t>
+  </si>
+  <si>
+    <t>()Scenario: Request is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenario: Manager approval or denial is no more than 500 character</t>
+  </si>
+  <si>
+    <t>()Scenraio: Managers have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenario: Employees have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenario: Request is more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenario: Manager approval or denial is more than 500 characters</t>
+  </si>
+  <si>
+    <t>()Scenraio: Managers do not have unique usernames</t>
+  </si>
+  <si>
+    <t>()Scenraio: Employees do not have unique usernames</t>
+  </si>
+  <si>
+    <t>Seble</t>
+  </si>
+  <si>
+    <t>Sherrita</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Requirement Traceability Matrix
+Employee Reimbursement System</t>
+  </si>
+  <si>
+    <t>Test steps (Acceptance Criteria)</t>
+  </si>
+  <si>
+    <t>Description (User Story)</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,34 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,10 +302,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -244,18 +341,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -565,308 +697,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" customWidth="1"/>
-    <col min="11" max="11" width="42.109375" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
+    <col min="1" max="3" width="32.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="32.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="32" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>17</v>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Incomplete">
+      <formula>NOT(ISERROR(SEARCH("Incomplete",H1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Complete">
+      <formula>LEFT(H1,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEF711-AFA9-4FF1-9EBE-7CEB9F7FDE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BA4F3-074E-4047-A894-39D8D41316A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t>Feature/Requirment</t>
   </si>
   <si>
-    <t>Description(User Story)</t>
-  </si>
-  <si>
-    <t>Test steps(Acceptance Criteria)</t>
-  </si>
-  <si>
     <t>Positive tests</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Employees should be able login</t>
   </si>
   <si>
-    <t>link to feature file/Acceptance Criteria</t>
-  </si>
-  <si>
     <t>(1.1)Scenario: Login With Correct Credentials</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>Employee should view request</t>
   </si>
   <si>
-    <t>Requirement Traceability Matrix</t>
-  </si>
-  <si>
     <t>Manager view request</t>
   </si>
   <si>
@@ -257,13 +245,26 @@
   </si>
   <si>
     <t>Richard</t>
+  </si>
+  <si>
+    <t>Requirement Traceability Matrix
+Employee Reimbursement System</t>
+  </si>
+  <si>
+    <t>Test steps (Acceptance Criteria)</t>
+  </si>
+  <si>
+    <t>Description (User Story)</t>
+  </si>
+  <si>
+    <t>link to feature file/ Acceptance Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,28 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,10 +302,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -319,17 +341,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -639,27 +687,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="47.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -669,14 +718,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -704,381 +751,392 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Incomplete">
+      <formula>LEFT(H1,LEN("Incomplete"))="Incomplete"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Complete">
+      <formula>LEFT(H1,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BA4F3-074E-4047-A894-39D8D41316A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E810C-39D9-44E7-B00F-9DD7DD529447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -121,27 +121,9 @@
     <t>Manager deny request</t>
   </si>
   <si>
-    <t>()Scenario: Login With Correct Credentials</t>
-  </si>
-  <si>
     <t>()Scenario: Login with incorrect credentials</t>
   </si>
   <si>
-    <t>()Scenario: Logout with button</t>
-  </si>
-  <si>
-    <t>()Scenario: Table load</t>
-  </si>
-  <si>
-    <t>()Scenario: Submit Approve</t>
-  </si>
-  <si>
-    <t>()Scenario: Submit Deny</t>
-  </si>
-  <si>
-    <t>()Scenario: Create request</t>
-  </si>
-  <si>
     <t>()Scenario: Logout button error</t>
   </si>
   <si>
@@ -184,55 +166,7 @@
     <t>Managers approve or denial reason is no more than 500 characters</t>
   </si>
   <si>
-    <t>Managers usernames must be unique</t>
-  </si>
-  <si>
-    <t>Employees usernames must be unique</t>
-  </si>
-  <si>
-    <t>Employees must have unique usernames</t>
-  </si>
-  <si>
-    <t>Managers must have unique usernames</t>
-  </si>
-  <si>
     <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>()Scenario: Sees others requests</t>
-  </si>
-  <si>
-    <t>()Scenario: Makes over 1000$ requests</t>
-  </si>
-  <si>
-    <t>()Scenario: Sees only their requests</t>
-  </si>
-  <si>
-    <t>()Scenario: Makes up 1000$ requests</t>
-  </si>
-  <si>
-    <t>()Scenario: Request is no more than 500 characters</t>
-  </si>
-  <si>
-    <t>()Scenario: Manager approval or denial is no more than 500 character</t>
-  </si>
-  <si>
-    <t>()Scenraio: Managers have unique usernames</t>
-  </si>
-  <si>
-    <t>()Scenario: Employees have unique usernames</t>
-  </si>
-  <si>
-    <t>()Scenario: Request is more than 500 characters</t>
-  </si>
-  <si>
-    <t>()Scenario: Manager approval or denial is more than 500 characters</t>
-  </si>
-  <si>
-    <t>()Scenraio: Managers do not have unique usernames</t>
-  </si>
-  <si>
-    <t>()Scenraio: Employees do not have unique usernames</t>
   </si>
   <si>
     <t>Seble</t>
@@ -258,6 +192,66 @@
   </si>
   <si>
     <t>link to feature file/ Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>usernames must be unique</t>
+  </si>
+  <si>
+    <t>must have unique usernames</t>
+  </si>
+  <si>
+    <t>(2.1)Scenario: Login With Correct Credentials</t>
+  </si>
+  <si>
+    <t>(3.1)Scenario: Logout with button</t>
+  </si>
+  <si>
+    <t>(4.1)Scenario: Logout with button</t>
+  </si>
+  <si>
+    <t>(5.1)Scenario: Table load</t>
+  </si>
+  <si>
+    <t>(6.1)Scenario: Submit Approve</t>
+  </si>
+  <si>
+    <t>(7.1)Scenario: Submit Deny</t>
+  </si>
+  <si>
+    <t>(8.1)Scenario: Create request</t>
+  </si>
+  <si>
+    <t>(9.1)Scenario: Table load</t>
+  </si>
+  <si>
+    <t>(10.1)Scenario: Sees only their requests</t>
+  </si>
+  <si>
+    <t>(11.1)Scenario: Makes up 1000$ requests</t>
+  </si>
+  <si>
+    <t>(12.1)Scenario: Request is no more than 500 characters</t>
+  </si>
+  <si>
+    <t>(13.1)Scenario: Manager approval or denial is no more than 500 character</t>
+  </si>
+  <si>
+    <t>(14.1)Scenraio: must have unique usernames</t>
+  </si>
+  <si>
+    <t>(10.2)Scenario: Sees others requests</t>
+  </si>
+  <si>
+    <t>(11.2)Scenario: Makes over 1000$ requests</t>
+  </si>
+  <si>
+    <t>(12.2)Scenario: Request is more than 500 characters</t>
+  </si>
+  <si>
+    <t>(13.2)Scenario: Manager approval or denial is more than 500 characters</t>
+  </si>
+  <si>
+    <t>(14.2)Scenraio: do not have unique usernames</t>
   </si>
 </sst>
 </file>
@@ -289,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -337,15 +337,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -358,6 +403,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,14 +435,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -687,442 +756,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="47.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="47.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1130,11 +1192,11 @@
     <mergeCell ref="A1:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Incomplete">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Complete">
+      <formula>LEFT(H1,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Incomplete">
       <formula>LEFT(H1,LEN("Incomplete"))="Incomplete"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Complete">
-      <formula>LEFT(H1,LEN("Complete"))="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E810C-39D9-44E7-B00F-9DD7DD529447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D0B04-7A73-42A1-954B-DF8466F88D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15345" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,12 +169,6 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
-    <t>Seble</t>
-  </si>
-  <si>
-    <t>Sherrita</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>(14.2)Scenraio: do not have unique usernames</t>
+  </si>
+  <si>
+    <t>Quyen</t>
+  </si>
+  <si>
+    <t>Jason</t>
   </si>
 </sst>
 </file>
@@ -403,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -426,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +759,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,60 +775,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -850,28 +850,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>44</v>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -885,16 +885,16 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,66 +908,66 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>45</v>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -981,116 +981,116 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1103,17 +1103,17 @@
       <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1126,17 +1126,17 @@
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1149,42 +1149,42 @@
       <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>47</v>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D0B04-7A73-42A1-954B-DF8466F88D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304ED21-3D0D-43AA-914A-BC572466EE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15345" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Employee create request</t>
   </si>
   <si>
-    <t>Employee should creat request</t>
-  </si>
-  <si>
     <t>Employee view request</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Jason</t>
+  </si>
+  <si>
+    <t>Employee should create request</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -885,16 +885,16 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,16 +908,16 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -942,12 +942,12 @@
         <v>10</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -956,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -967,12 +967,12 @@
         <v>10</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -981,21 +981,21 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -1004,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1040,24 +1040,24 @@
         <v>10</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1065,24 +1065,24 @@
         <v>10</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1090,93 +1090,93 @@
         <v>10</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304ED21-3D0D-43AA-914A-BC572466EE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAFE9E-5E17-45DB-9A7F-BDAB73FE6FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Richard</t>
   </si>
   <si>
     <t>Requirement Traceability Matrix
@@ -200,21 +194,12 @@
     <t>(4.1)Scenario: Logout with button</t>
   </si>
   <si>
-    <t>(5.1)Scenario: Table load</t>
-  </si>
-  <si>
     <t>(6.1)Scenario: Submit Approve</t>
   </si>
   <si>
     <t>(7.1)Scenario: Submit Deny</t>
   </si>
   <si>
-    <t>(8.1)Scenario: Create request</t>
-  </si>
-  <si>
-    <t>(9.1)Scenario: Table load</t>
-  </si>
-  <si>
     <t>(10.1)Scenario: Sees only their requests</t>
   </si>
   <si>
@@ -252,6 +237,30 @@
   </si>
   <si>
     <t>Employee should create request</t>
+  </si>
+  <si>
+    <t>(8.1)Scenario: Personal Requests Table load</t>
+  </si>
+  <si>
+    <t>(9.1)Scenario: Create request</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>end to end</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>(5.1)Scenario: Table load / get all requests</t>
+  </si>
+  <si>
+    <t>unit?</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -352,6 +361,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -362,9 +389,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -373,9 +407,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -389,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -403,29 +435,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,63 +822,65 @@
     <col min="7" max="7" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -848,343 +900,416 @@
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="I8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="I9" s="17"/>
+      <c r="K9" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="K13" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="13"/>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17" s="13"/>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>44</v>
+      <c r="I19" s="16"/>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAFE9E-5E17-45DB-9A7F-BDAB73FE6FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD904200-6E6F-47A7-9A36-2E1204AE409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -260,7 +260,16 @@
     <t>(5.1)Scenario: Table load / get all requests</t>
   </si>
   <si>
-    <t>unit?</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Ausin</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
@@ -438,45 +447,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +816,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,50 +834,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -908,28 +915,25 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="10"/>
+      <c r="K6" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -937,28 +941,25 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="11"/>
+      <c r="K7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -966,25 +967,25 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="K8" s="18" t="s">
+      <c r="I8" s="13"/>
+      <c r="K8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -992,25 +993,25 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="K9" s="18" t="s">
+      <c r="I9" s="13"/>
+      <c r="K9" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1018,30 +1019,30 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1049,30 +1050,30 @@
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1080,30 +1081,30 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1111,28 +1112,25 @@
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="18" t="s">
+      <c r="I13" s="11"/>
+      <c r="K13" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1140,30 +1138,30 @@
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1171,28 +1169,25 @@
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="18" t="s">
+      <c r="I15" s="11"/>
+      <c r="K15" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1200,28 +1195,30 @@
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J16" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1229,28 +1226,30 @@
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J17" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1258,57 +1257,61 @@
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="J18" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" t="s">
+      <c r="I19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="7" t="s">
         <v>70</v>
       </c>
     </row>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD904200-6E6F-47A7-9A36-2E1204AE409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46A8AF-3F59-4356-AFDD-7650BBA41239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -269,7 +271,172 @@
     <t>Ausin</t>
   </si>
   <si>
-    <t>Richard</t>
+    <t>1.2 manager log in to manager page</t>
+  </si>
+  <si>
+    <t>1.1 requester log in to requester page</t>
+  </si>
+  <si>
+    <t>...\Project2\project2\src\test\resources\features\login.feature</t>
+  </si>
+  <si>
+    <t>(1.1) correct credentials lead to reqester page</t>
+  </si>
+  <si>
+    <t>(1.2) correct credentials lead to manager page</t>
+  </si>
+  <si>
+    <t>2.2 managers should be able to approve requests</t>
+  </si>
+  <si>
+    <t>2.3 managers should be able to deny requests</t>
+  </si>
+  <si>
+    <t>\Project2\project2\src\test\resources\features\manager.feature</t>
+  </si>
+  <si>
+    <t>2.2 request status changes from pending to approved</t>
+  </si>
+  <si>
+    <t>2.3 request status changes from pending to denied</t>
+  </si>
+  <si>
+    <t>3.2 new requests successfully added to database</t>
+  </si>
+  <si>
+    <t>Business Rules</t>
+  </si>
+  <si>
+    <t>BR1 usernames must be unique</t>
+  </si>
+  <si>
+    <t>BR2 status reason must not exceed 500 characters</t>
+  </si>
+  <si>
+    <t>BR3.1 requests from other users should not be visible</t>
+  </si>
+  <si>
+    <t>BR3.2.1 request amount should not exceed 1000</t>
+  </si>
+  <si>
+    <t>BR3.2.2 request reason should not exceed 500 characters</t>
+  </si>
+  <si>
+    <t>1. employees should be able to log in to role page</t>
+  </si>
+  <si>
+    <t>2. managers should view and update request status</t>
+  </si>
+  <si>
+    <t>3. employees should be able to create new and view their previous requests</t>
+  </si>
+  <si>
+    <t>3.1 requesters should be able to view their previous requests</t>
+  </si>
+  <si>
+    <t>3.2 requesters should be able to create new requests</t>
+  </si>
+  <si>
+    <t>2.1 managers should be able to view requester requests</t>
+  </si>
+  <si>
+    <t>3.1 table loads with pending and previous requests</t>
+  </si>
+  <si>
+    <t>wireframes</t>
+  </si>
+  <si>
+    <t>RTM (this)</t>
+  </si>
+  <si>
+    <t>test plan</t>
+  </si>
+  <si>
+    <t>database tables</t>
+  </si>
+  <si>
+    <t>feature files</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>unit tests</t>
+  </si>
+  <si>
+    <t>service tests</t>
+  </si>
+  <si>
+    <t>e2e tests</t>
+  </si>
+  <si>
+    <t>Test types</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>unit, service</t>
+  </si>
+  <si>
+    <t>service, end to end</t>
+  </si>
+  <si>
+    <t>no update if 500 characters exceeded</t>
+  </si>
+  <si>
+    <t>no submission if 500 characters exceeded</t>
+  </si>
+  <si>
+    <t>no submission if 1000 amount exceeded</t>
+  </si>
+  <si>
+    <t>requests from other users visible</t>
+  </si>
+  <si>
+    <t>\Project2\project2\src\test\resources\features\requester.feature</t>
+  </si>
+  <si>
+    <t>2.1 unit table loads with all requests</t>
+  </si>
+  <si>
+    <t>acceptance criteria</t>
+  </si>
+  <si>
+    <t>project packages</t>
+  </si>
+  <si>
+    <t>ui (web pages)</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>austin</t>
+  </si>
+  <si>
+    <t>R, A, J, Q</t>
+  </si>
+  <si>
+    <t>jason, quyen</t>
+  </si>
+  <si>
+    <t>austin, quyen</t>
+  </si>
+  <si>
+    <t>quyen</t>
+  </si>
+  <si>
+    <t>richard, jason</t>
+  </si>
+  <si>
+    <t>Sprint Task</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
   </si>
 </sst>
 </file>
@@ -301,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +493,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -426,11 +599,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -474,21 +660,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -816,7 +1079,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,50 +1097,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1210,7 +1473,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>75</v>
@@ -1241,7 +1504,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>75</v>
@@ -1272,7 +1535,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>76</v>
@@ -1285,7 +1548,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1302,32 +1565,834 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Complete">
+    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="Complete">
       <formula>LEFT(H1,LEN("Complete"))="Complete"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Incomplete">
+    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="Incomplete">
       <formula>LEFT(H1,LEN("Incomplete"))="Incomplete"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97CBD40-62A8-4230-A581-90CE63A0ADA6}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A1:K4"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:H22">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Complete">
+      <formula>LEFT(H5,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Incomplete">
+      <formula>LEFT(H5,LEN("Incomplete"))="Incomplete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Fail">
+      <formula>LEFT(I1,LEN("Fail"))="Fail"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Success">
+      <formula>LEFT(I1,LEN("Success"))="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2F14A-2EE2-422B-B854-1E568F21DD88}">
+  <dimension ref="D6:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46A8AF-3F59-4356-AFDD-7650BBA41239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4F132-CE63-4903-8324-EDDA44809CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -437,6 +437,21 @@
   </si>
   <si>
     <t>Assigned to</t>
+  </si>
+  <si>
+    <t>stretch goal tests</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>employee controller/api</t>
+  </si>
+  <si>
+    <t>requester webpage</t>
+  </si>
+  <si>
+    <t>manager stretch goals</t>
   </si>
 </sst>
 </file>
@@ -695,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,9 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A12EF-3E90-4D33-94B5-26CA4D060C9D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1097,50 +1112,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1613,58 +1628,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -1685,7 +1700,7 @@
       <c r="F5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="30" t="s">
         <v>110</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -1750,16 +1765,16 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -1783,12 +1798,12 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="14" t="s">
         <v>81</v>
       </c>
@@ -1821,14 +1836,14 @@
       <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1848,14 +1863,14 @@
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="14" t="s">
         <v>85</v>
       </c>
@@ -1875,12 +1890,12 @@
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="14" t="s">
         <v>86</v>
       </c>
@@ -1915,7 +1930,7 @@
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1924,7 +1939,7 @@
       <c r="C16" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>119</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -1946,15 +1961,15 @@
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -1973,13 +1988,13 @@
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="14" t="s">
         <v>116</v>
       </c>
@@ -2270,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2F14A-2EE2-422B-B854-1E568F21DD88}">
-  <dimension ref="D6:E23"/>
+  <dimension ref="D6:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,13 +2399,36 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="18"/>
+      <c r="D21" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="18"/>
+      <c r="D22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="18"/>
+      <c r="D23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21578AF4-7079-4900-9ABB-155DEC9498DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF3186-4AE5-4212-965B-7006DF80915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -475,25 +475,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,7 +842,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,58 +862,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -954,7 +954,7 @@
       <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -970,7 +970,7 @@
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>84</v>
       </c>
       <c r="J6" s="23" t="s">
@@ -981,7 +981,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
         <v>76</v>
@@ -993,14 +993,14 @@
       <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="18"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1009,14 +1009,14 @@
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="18"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="15"/>
@@ -1032,14 +1032,14 @@
       <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="18"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
         <v>75</v>
@@ -1051,14 +1051,14 @@
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="18"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="17"/>
       <c r="E11" s="2" t="s">
         <v>78</v>
@@ -1068,7 +1068,7 @@
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="18"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
@@ -1089,7 +1089,7 @@
       <c r="H12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="16"/>
       <c r="K12" s="3" t="s">
         <v>87</v>
@@ -1114,7 +1114,7 @@
       <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2"/>
@@ -1130,7 +1130,7 @@
       <c r="H14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="20" t="s">
         <v>85</v>
       </c>
       <c r="J14" s="18" t="s">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>68</v>
@@ -1156,7 +1156,7 @@
       <c r="H15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="18"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
@@ -1178,14 +1178,14 @@
       <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="18"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="15"/>
@@ -1201,28 +1201,30 @@
       <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="18"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="18"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
@@ -1245,7 +1247,7 @@
       <c r="A20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1258,7 +1260,7 @@
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="19" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="18" t="s">
@@ -1269,7 +1271,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1280,7 +1282,7 @@
       <c r="H21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="18"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
@@ -1301,7 +1303,7 @@
       <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="18"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
@@ -1321,7 +1323,7 @@
       <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="18"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
@@ -1339,7 +1341,7 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="18"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
@@ -1359,7 +1361,7 @@
       <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
@@ -1393,7 +1395,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J27" s="8"/>
@@ -1415,7 +1417,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
       <c r="K28" s="3" t="s">
         <v>89</v>
@@ -1604,12 +1606,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="J6:J11"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="J20:J25"/>
@@ -1621,6 +1617,12 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H29">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Complete">

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF3186-4AE5-4212-965B-7006DF80915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4ECC8-D1F5-4C64-A5C6-480FA601C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>automated results</t>
-  </si>
-  <si>
-    <t>Overall Stauts</t>
   </si>
   <si>
     <t>Assigned To</t>
@@ -111,9 +108,6 @@
     <t>BR3.2.2 request reason should not exceed 500 characters</t>
   </si>
   <si>
-    <t>1. employees should be able to log in to role page</t>
-  </si>
-  <si>
     <t>2. managers should view and update request status</t>
   </si>
   <si>
@@ -276,21 +270,6 @@
     <t>1.1s: m-credentials invalid</t>
   </si>
   <si>
-    <t>4. employees should be able to log out</t>
-  </si>
-  <si>
-    <t>1.1 requester logs out to login page</t>
-  </si>
-  <si>
-    <t>1.2 manager logs out to login page</t>
-  </si>
-  <si>
-    <t>4.1 requester page log out button leads to log in page</t>
-  </si>
-  <si>
-    <t>4.2 manager page log out button leads to log in page</t>
-  </si>
-  <si>
     <t>Quyen and Richard</t>
   </si>
   <si>
@@ -306,7 +285,22 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>r</t>
+    <t>Overall Status</t>
+  </si>
+  <si>
+    <t>1. employees should be able to log in to role page and log out to login page</t>
+  </si>
+  <si>
+    <t>1.3 requester logs out to login page</t>
+  </si>
+  <si>
+    <t>1.4 manager logs out to login page</t>
+  </si>
+  <si>
+    <t>1.3e: requester logs out of role page to login page</t>
+  </si>
+  <si>
+    <t>1.4e: manager logs out of manager page to login page</t>
   </si>
 </sst>
 </file>
@@ -446,9 +440,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,25 +466,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,15 +836,15 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -862,68 +856,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
@@ -938,491 +932,487 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>13</v>
+      <c r="A6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="15"/>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
+      <c r="A18" s="20"/>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>41</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>65</v>
+    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>63</v>
+      <c r="A23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>67</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="19"/>
+    <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1605,24 +1595,22 @@
       <c r="L41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I6:I14"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="J6:J11"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J22:J27"/>
     <mergeCell ref="A1:K4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H29">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Complete">
@@ -1661,138 +1649,138 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4ECC8-D1F5-4C64-A5C6-480FA601C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0369A-113B-49D5-961A-366433B52D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
   </si>
   <si>
     <t>Requirement Traceability Matrix
@@ -153,9 +150,6 @@
     <t>success</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>\Project2\project2\src\test\resources\features\requester.feature</t>
   </si>
   <si>
@@ -246,12 +240,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>written, not tested</t>
-  </si>
-  <si>
-    <t>incomplete</t>
-  </si>
-  <si>
     <t>1.1e: requester credentials lead to reqester page</t>
   </si>
   <si>
@@ -301,6 +289,57 @@
   </si>
   <si>
     <t>1.4e: manager logs out of manager page to login page</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>rajq</t>
+  </si>
+  <si>
+    <t>4.2 personal (manager)</t>
+  </si>
+  <si>
+    <t>S5. personal reimbursement stats</t>
+  </si>
+  <si>
+    <t>5.1 personal (requester)</t>
+  </si>
+  <si>
+    <t>5.2 requester</t>
+  </si>
+  <si>
+    <t>5.3 manager</t>
+  </si>
+  <si>
+    <t>5.1.1 aesthetics (background, elements)</t>
+  </si>
+  <si>
+    <t>5.1.2 functionality (input, buttons?)</t>
+  </si>
+  <si>
+    <t>.2.1</t>
+  </si>
+  <si>
+    <t>.2.2</t>
+  </si>
+  <si>
+    <t>S6. css</t>
+  </si>
+  <si>
+    <t>6.1 login</t>
+  </si>
+  <si>
+    <t>Quyen</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>S4.  reimbursement statistics (company)</t>
+  </si>
+  <si>
+    <t>4.1 global statistics</t>
   </si>
 </sst>
 </file>
@@ -469,6 +508,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,15 +527,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,9 +872,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97CBD40-62A8-4230-A581-90CE63A0ADA6}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -856,68 +895,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
@@ -932,201 +971,221 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>12</v>
+      <c r="A6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="E11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="19"/>
       <c r="J12" s="17"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="17"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="15"/>
       <c r="K14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1145,121 +1204,121 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>27</v>
+      <c r="A16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
-        <v>15</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
@@ -1278,125 +1337,139 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="23"/>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="23"/>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
@@ -1442,43 +1515,59 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1498,14 +1587,22 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1513,8 +1610,9 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1527,7 +1625,6 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1541,7 +1638,6 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1554,8 +1650,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1568,9 +1663,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1582,9 +1681,11 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1594,13 +1695,126 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="I6:I14"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A6:A14"/>
     <mergeCell ref="J6:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J22:J27"/>
@@ -1611,6 +1825,11 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I6:I14"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H29">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Complete">
@@ -1635,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B2F14A-2EE2-422B-B854-1E568F21DD88}">
-  <dimension ref="C6:E24"/>
+  <dimension ref="C6:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,138 +1868,149 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/RTM Document.xlsx
+++ b/RTM Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4ECC8-D1F5-4C64-A5C6-480FA601C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A3E6AC-08C8-48A7-9118-97BC293F2873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DFD0881F-4B80-4965-9D29-C12E8850B0ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>Feature/Requirment</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
   </si>
   <si>
     <t>Requirement Traceability Matrix
@@ -153,9 +150,6 @@
     <t>success</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>\Project2\project2\src\test\resources\features\requester.feature</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>3.1u: table loads with pending and previous requests</t>
   </si>
   <si>
-    <t>3.1s: requests from other users visible</t>
-  </si>
-  <si>
     <t>3.2.1s: no submission if 1000 amount exceeded</t>
   </si>
   <si>
@@ -246,12 +237,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>written, not tested</t>
-  </si>
-  <si>
-    <t>incomplete</t>
-  </si>
-  <si>
     <t>1.1e: requester credentials lead to reqester page</t>
   </si>
   <si>
@@ -301,6 +286,9 @@
   </si>
   <si>
     <t>1.4e: manager logs out of manager page to login page</t>
+  </si>
+  <si>
+    <t>3.1s: requests from other users (not) visible</t>
   </si>
 </sst>
 </file>
@@ -469,6 +457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,15 +476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,7 +824,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,68 +844,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
@@ -932,201 +920,221 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>12</v>
+      <c r="A6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="E11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="19"/>
       <c r="J12" s="17"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="17"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="15"/>
       <c r="K14" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1145,121 +1153,121 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>27</v>
+      <c r="A16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
-        <v>15</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
@@ -1278,125 +1286,139 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="23"/>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="23"/>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
@@ -1596,11 +1618,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="I6:I14"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A6:A14"/>
     <mergeCell ref="J6:J11"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="J22:J27"/>
@@ -1611,6 +1628,11 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I6:I14"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H29">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Complete">
@@ -1649,138 +1671,138 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
